--- a/두잉코딩_수강생_대장_학원비.xlsx
+++ b/두잉코딩_수강생_대장_학원비.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="1498">
   <si>
     <t>수강생 대장</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6263,6 +6263,10 @@
   </si>
   <si>
     <t>변경된게 보일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용을 삭제해 봅시다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7742,7 +7746,7 @@
       <selection activeCell="B58" sqref="B58"/>
       <selection pane="topRight" activeCell="W3" sqref="W1:AR1048576"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="BJ15" sqref="BJ15"/>
+      <selection pane="bottomRight" activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9974,7 +9978,9 @@
       <c r="BG15" s="137"/>
       <c r="BH15" s="73"/>
       <c r="BI15" s="48"/>
-      <c r="BJ15" s="111"/>
+      <c r="BJ15" s="111" t="s">
+        <v>1497</v>
+      </c>
       <c r="BK15" s="111"/>
       <c r="BL15" s="73"/>
       <c r="BM15" s="73"/>
